--- a/Auto/mods.xlsx
+++ b/Auto/mods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Desktop\Game_Dev\Guanaco-Firework-Mania-Mods\Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1A7992E-291E-4FE6-A310-3DE4F8980ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6356F5F6-30CD-43BA-B814-CD14D966C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C08B4562-FE3A-4FB1-B04C-770BC5ACD0FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>mod_name</t>
   </si>
@@ -43,16 +43,33 @@
   </si>
   <si>
     <t>mod_image</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>https://thumb.modcdn.io/mods/cab8/1470149/crop_320x180/the_hell_mod_thumbail.png</t>
+  </si>
+  <si>
+    <t>https://fireworksmania.mod.io/hell-yeah-mod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +92,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF0BEDF-7A00-46AE-A211-C35E302E3A51}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +438,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3F92D744-5D0C-4080-A322-DA6A11BF8116}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{A408E7E1-FDE9-422F-9678-08722465C1D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>